--- a/biology/Médecine/Salomon_Sellam/Salomon_Sellam.xlsx
+++ b/biology/Médecine/Salomon_Sellam/Salomon_Sellam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salomon Sellam, né le 28 décembre 1955 en Algérie[1],[2], est un médecin français et essayiste ayant publié dans le domaine de la psychogénéalogie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salomon Sellam, né le 28 décembre 1955 en Algérie est un médecin français et essayiste ayant publié dans le domaine de la psychogénéalogie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient son diplôme de médecin en 1983[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient son diplôme de médecin en 1983.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Critique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans un article intitulé « La psychogénéalogie Le syndrome du Gisant », Géraldine Fabre a critiqué la notion de « syndrome du Gisant » inventée par Salomon Sellam, qui y voit «la conséquence d'une mort injustifiée ou injustifiable, au sein d'une famille qu'un enfant à naître est chargé inconsciemment de combler»[4]. Cette auteure estime notamment que les éléments que Salomon Sellam présente comme des « conclusions » sont, selon elle, plutôt « des suppositions tirées d’interprétations et d’assimilations pouvant être discutées ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un article intitulé « La psychogénéalogie Le syndrome du Gisant », Géraldine Fabre a critiqué la notion de « syndrome du Gisant » inventée par Salomon Sellam, qui y voit «la conséquence d'une mort injustifiée ou injustifiable, au sein d'une famille qu'un enfant à naître est chargé inconsciemment de combler». Cette auteure estime notamment que les éléments que Salomon Sellam présente comme des « conclusions » sont, selon elle, plutôt « des suppositions tirées d’interprétations et d’assimilations pouvant être discutées ».
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les maladies pulmonaires,  Éd. Bérangel,  (ISBN 978-2915227192)
 Les os, généralités - Psychosomatique clinique de l'appareil ostéo-articulaire, Éd. Bérangel,  (ISBN 978-2915227208)
